--- a/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_37_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_37_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,56 +518,56 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_37_9_12</t>
+          <t>model_37_9_10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9335786610272885</v>
+        <v>0.9928822165497502</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7323610113760228</v>
+        <v>0.7266954026682314</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8767646516051149</v>
+        <v>0.9065742921738893</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9630245910924282</v>
+        <v>0.9474116608409408</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8937379004381892</v>
+        <v>0.9472147272221531</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4441597995526659</v>
+        <v>0.04759665070619971</v>
       </c>
       <c r="H2" t="n">
-        <v>1.789703149292762</v>
+        <v>1.827589100809492</v>
       </c>
       <c r="I2" t="n">
-        <v>1.557671853684161</v>
+        <v>0.1605925686928184</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1049475563347319</v>
+        <v>0.09749533935175493</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8313097073909148</v>
+        <v>0.1290439719512106</v>
       </c>
       <c r="L2" t="n">
-        <v>1.526454763536773</v>
+        <v>0.1450679634138168</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6664531488054249</v>
+        <v>0.218166566426205</v>
       </c>
       <c r="N2" t="n">
-        <v>1.014107187038452</v>
+        <v>1.003223147222755</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6948254390982782</v>
+        <v>0.22745436882602</v>
       </c>
       <c r="P2" t="n">
-        <v>275.6231417447984</v>
+        <v>160.089985767071</v>
       </c>
       <c r="Q2" t="n">
-        <v>442.6091297517419</v>
+        <v>253.9434242819225</v>
       </c>
     </row>
     <row r="3">
@@ -577,492 +577,492 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9332401693669364</v>
+        <v>0.9929608082532226</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7323557659054774</v>
+        <v>0.7266914239977362</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8773754603341672</v>
+        <v>0.9061612430781913</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9632899216619722</v>
+        <v>0.9455333862973619</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8942794692597545</v>
+        <v>0.9463573249710934</v>
       </c>
       <c r="G3" t="n">
-        <v>0.446423294844051</v>
+        <v>0.04707110762319824</v>
       </c>
       <c r="H3" t="n">
-        <v>1.789738225778452</v>
+        <v>1.827615706197413</v>
       </c>
       <c r="I3" t="n">
-        <v>1.549951345099394</v>
+        <v>0.1613025725752384</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1041944667620335</v>
+        <v>0.1009775374388272</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8270729059307135</v>
+        <v>0.1311400602389857</v>
       </c>
       <c r="L3" t="n">
-        <v>1.54093876723742</v>
+        <v>0.1429942038551875</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6681491561351035</v>
+        <v>0.2169587694083792</v>
       </c>
       <c r="N3" t="n">
-        <v>1.014179079072509</v>
+        <v>1.003187558526843</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6965936489712004</v>
+        <v>0.2261951533886609</v>
       </c>
       <c r="P3" t="n">
-        <v>275.6129753709723</v>
+        <v>160.1121917848834</v>
       </c>
       <c r="Q3" t="n">
-        <v>442.5989633779158</v>
+        <v>253.9656302997348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_37_9_13</t>
+          <t>model_37_9_9</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9338976829073273</v>
+        <v>0.9927611425630386</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7323506604688945</v>
+        <v>0.726668549450277</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8761329245784503</v>
+        <v>0.9070002264291614</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9627245314964812</v>
+        <v>0.9492648674417243</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8931731258218818</v>
+        <v>0.948067170227339</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4420264987718852</v>
+        <v>0.04840627301283451</v>
       </c>
       <c r="H4" t="n">
-        <v>1.78977236585639</v>
+        <v>1.827768668401601</v>
       </c>
       <c r="I4" t="n">
-        <v>1.565656765655148</v>
+        <v>0.1598604160793671</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1057992175409176</v>
+        <v>0.09405961559014647</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8357280524354833</v>
+        <v>0.1269600075144979</v>
       </c>
       <c r="L4" t="n">
-        <v>1.512274806751715</v>
+        <v>0.1473214643654016</v>
       </c>
       <c r="M4" t="n">
-        <v>0.664850734204216</v>
+        <v>0.2200142563854318</v>
       </c>
       <c r="N4" t="n">
-        <v>1.014039430178975</v>
+        <v>1.003277973179001</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6931548063900403</v>
+        <v>0.2293807187720567</v>
       </c>
       <c r="P4" t="n">
-        <v>275.6327708934578</v>
+        <v>160.0562517319094</v>
       </c>
       <c r="Q4" t="n">
-        <v>442.6187589004013</v>
+        <v>253.9096902467608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_37_9_10</t>
+          <t>model_37_9_12</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9328815824429086</v>
+        <v>0.9930067910367464</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7323342634763199</v>
+        <v>0.7266649908055427</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8779642942308312</v>
+        <v>0.9057648452968116</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9635190787458399</v>
+        <v>0.9436698616799296</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8947967230803844</v>
+        <v>0.9455113614947146</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4488211672561653</v>
+        <v>0.04676362053804322</v>
       </c>
       <c r="H5" t="n">
-        <v>1.789882012621238</v>
+        <v>1.827792465075325</v>
       </c>
       <c r="I5" t="n">
-        <v>1.542508594303659</v>
+        <v>0.161983953957485</v>
       </c>
       <c r="J5" t="n">
-        <v>0.103544048641471</v>
+        <v>0.104432390128078</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8230263255972947</v>
+        <v>0.1332081841942602</v>
       </c>
       <c r="L5" t="n">
-        <v>1.555982881922094</v>
+        <v>0.1410813673747256</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6699411670110781</v>
+        <v>0.2162489781202289</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01425523912717</v>
+        <v>1.003166736134304</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6984619494601391</v>
+        <v>0.2254551448159035</v>
       </c>
       <c r="P5" t="n">
-        <v>275.6022615235357</v>
+        <v>160.1252994345476</v>
       </c>
       <c r="Q5" t="n">
-        <v>442.5882495304792</v>
+        <v>253.978737949399</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_37_9_14</t>
+          <t>model_37_9_13</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9341977045091792</v>
+        <v>0.9930279561252114</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7323252385853325</v>
+        <v>0.7266225219789553</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8754808534330696</v>
+        <v>0.9053871132634812</v>
       </c>
       <c r="E6" t="n">
-        <v>0.962390863937411</v>
+        <v>0.9418493993902417</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8925858354089173</v>
+        <v>0.9446882961688577</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4400202529388298</v>
+        <v>0.0466220894940216</v>
       </c>
       <c r="H6" t="n">
-        <v>1.789942362108827</v>
+        <v>1.828076454314266</v>
       </c>
       <c r="I6" t="n">
-        <v>1.573898823498035</v>
+        <v>0.1626332501621547</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1067462684590053</v>
+        <v>0.1078074080797454</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8403225430710742</v>
+        <v>0.1352203291209501</v>
       </c>
       <c r="L6" t="n">
-        <v>1.498447129184964</v>
+        <v>0.1393292903748227</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6633402241224557</v>
+        <v>0.2159214891899868</v>
       </c>
       <c r="N6" t="n">
-        <v>1.013975708776812</v>
+        <v>1.0031571519433</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6915799907669126</v>
+        <v>0.2251137140039055</v>
       </c>
       <c r="P6" t="n">
-        <v>275.6418690474454</v>
+        <v>160.1313616533746</v>
       </c>
       <c r="Q6" t="n">
-        <v>442.6278570543889</v>
+        <v>253.9848001682261</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_37_9_9</t>
+          <t>model_37_9_8</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.932502284670701</v>
+        <v>0.9925852743171055</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7322959732455601</v>
+        <v>0.7266002925572803</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8785301072890586</v>
+        <v>0.9074345213357567</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9637114812814831</v>
+        <v>0.9510408800321856</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8952887140064464</v>
+        <v>0.9488932599206681</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4513575332054235</v>
+        <v>0.04958230478318763</v>
       </c>
       <c r="H7" t="n">
-        <v>1.790138059570639</v>
+        <v>1.828225102559365</v>
       </c>
       <c r="I7" t="n">
-        <v>1.53535682261861</v>
+        <v>0.1591138920631921</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1029979512068533</v>
+        <v>0.09076700447199945</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8191773819525696</v>
+        <v>0.1249404689272143</v>
       </c>
       <c r="L7" t="n">
-        <v>1.571186959751578</v>
+        <v>0.149762569058966</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6718314767896958</v>
+        <v>0.2226708440348391</v>
       </c>
       <c r="N7" t="n">
-        <v>1.014335797946046</v>
+        <v>1.00335761162999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7004327336395132</v>
+        <v>0.2321504028575938</v>
       </c>
       <c r="P7" t="n">
-        <v>275.5909909939838</v>
+        <v>160.0082425346163</v>
       </c>
       <c r="Q7" t="n">
-        <v>442.5769790009273</v>
+        <v>253.8616810494677</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_37_9_15</t>
+          <t>model_37_9_14</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9344792699786311</v>
+        <v>0.9930305730381199</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7322852148325076</v>
+        <v>0.7265691420671656</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8748093173495033</v>
+        <v>0.9050307756883574</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9620246628823724</v>
+        <v>0.9400937781739545</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8919769063517358</v>
+        <v>0.9438973334888729</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4381374233481147</v>
+        <v>0.04660459018535271</v>
       </c>
       <c r="H8" t="n">
-        <v>1.790210001128259</v>
+        <v>1.828433406030196</v>
       </c>
       <c r="I8" t="n">
-        <v>1.582386914534648</v>
+        <v>0.1632457707182464</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1077856594215115</v>
+        <v>0.1110622149246119</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8450863171583065</v>
+        <v>0.1371539928214291</v>
       </c>
       <c r="L8" t="n">
-        <v>1.484761953618714</v>
+        <v>0.1377233260209882</v>
       </c>
       <c r="M8" t="n">
-        <v>0.661919499144809</v>
+        <v>0.215880962998947</v>
       </c>
       <c r="N8" t="n">
-        <v>1.013915907261176</v>
+        <v>1.003155966926134</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6900987825856612</v>
+        <v>0.2250714625290123</v>
       </c>
       <c r="P8" t="n">
-        <v>275.6504453317584</v>
+        <v>160.1321124817399</v>
       </c>
       <c r="Q8" t="n">
-        <v>442.6364333387019</v>
+        <v>253.9855509965913</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_37_9_8</t>
+          <t>model_37_9_15</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9321018441499899</v>
+        <v>0.9930194978115574</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7322402730728608</v>
+        <v>0.726508790888494</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8790725927465247</v>
+        <v>0.9046950949824206</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9638653162163591</v>
+        <v>0.9384173774217006</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8957548706181971</v>
+        <v>0.9431436593146401</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4540352808112783</v>
+        <v>0.04667865027637263</v>
       </c>
       <c r="H9" t="n">
-        <v>1.790510526881955</v>
+        <v>1.828836974639864</v>
       </c>
       <c r="I9" t="n">
-        <v>1.528499907462901</v>
+        <v>0.1638227834921537</v>
       </c>
       <c r="J9" t="n">
-        <v>0.10256132045763</v>
+        <v>0.1141701522134505</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8155305453277444</v>
+        <v>0.1389964974421665</v>
       </c>
       <c r="L9" t="n">
-        <v>1.586544976273656</v>
+        <v>0.1362524601781825</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6738214012713445</v>
+        <v>0.2160524248333553</v>
       </c>
       <c r="N9" t="n">
-        <v>1.014420847260179</v>
+        <v>1.003160982123068</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7025073733260573</v>
+        <v>0.2252502238486863</v>
       </c>
       <c r="P9" t="n">
-        <v>275.5791607458441</v>
+        <v>160.1289367727394</v>
       </c>
       <c r="Q9" t="n">
-        <v>442.5651487527876</v>
+        <v>253.9823752875909</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_37_9_16</t>
+          <t>model_37_9_7</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9347428870461697</v>
+        <v>0.9923391500678538</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7322311406902855</v>
+        <v>0.7264772866077309</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8741190303566868</v>
+        <v>0.9078689131654254</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9616272084674596</v>
+        <v>0.9526710177410186</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8913471675234229</v>
+        <v>0.9496640748407174</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4363746148036394</v>
+        <v>0.05122813877123217</v>
       </c>
       <c r="H10" t="n">
-        <v>1.790571595166286</v>
+        <v>1.829047643910391</v>
       </c>
       <c r="I10" t="n">
-        <v>1.591112013572216</v>
+        <v>0.15836720144271</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1089137570093927</v>
+        <v>0.0877448358381496</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8500128902568632</v>
+        <v>0.1230560603850622</v>
       </c>
       <c r="L10" t="n">
-        <v>1.471213375151994</v>
+        <v>0.1523977961227602</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6605865687429917</v>
+        <v>0.2263363399262968</v>
       </c>
       <c r="N10" t="n">
-        <v>1.013859917795504</v>
+        <v>1.003469064120217</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6887091065770924</v>
+        <v>0.2359719464977734</v>
       </c>
       <c r="P10" t="n">
-        <v>275.658508392552</v>
+        <v>159.9429326250556</v>
       </c>
       <c r="Q10" t="n">
-        <v>442.6444963994955</v>
+        <v>253.796371139907</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_37_9_7</t>
+          <t>model_37_9_16</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9316795500207767</v>
+        <v>0.99299857232319</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7321665412571334</v>
+        <v>0.7264444204368201</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8795903003459686</v>
+        <v>0.904380376695302</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9639792489939016</v>
+        <v>0.9368293435132242</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8961937306186225</v>
+        <v>0.9424308854534115</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4568591635978118</v>
+        <v>0.04681857911343879</v>
       </c>
       <c r="H11" t="n">
-        <v>1.791003571873227</v>
+        <v>1.829267420146606</v>
       </c>
       <c r="I11" t="n">
-        <v>1.521956179818231</v>
+        <v>0.1643637632644136</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1022379442748432</v>
+        <v>0.1171142631567663</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8120972555655087</v>
+        <v>0.14073901321059</v>
       </c>
       <c r="L11" t="n">
-        <v>1.602063714938021</v>
+        <v>0.1349106933694793</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6759135770184024</v>
+        <v>0.2163760132580291</v>
       </c>
       <c r="N11" t="n">
-        <v>1.014510538048685</v>
+        <v>1.003170457815914</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7046886173260682</v>
+        <v>0.2255875881025189</v>
       </c>
       <c r="P11" t="n">
-        <v>275.5667602230373</v>
+        <v>160.1229503304693</v>
       </c>
       <c r="Q11" t="n">
-        <v>442.5527482299808</v>
+        <v>253.9763888453208</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9349891413137023</v>
+        <v>0.9929708973929424</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7321635476495121</v>
+        <v>0.726378346371952</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8734110406378632</v>
+        <v>0.9040879636889626</v>
       </c>
       <c r="E12" t="n">
-        <v>0.961199427705219</v>
+        <v>0.9353357892667605</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8906976267587742</v>
+        <v>0.9417617574945395</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4347279113827525</v>
+        <v>0.04700364149943534</v>
       </c>
       <c r="H12" t="n">
-        <v>1.791023590141176</v>
+        <v>1.829709257722623</v>
       </c>
       <c r="I12" t="n">
-        <v>1.600060871769747</v>
+        <v>0.1648664017447625</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1101279300765894</v>
+        <v>0.1198832149895825</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8550943778731002</v>
+        <v>0.1423748279940022</v>
       </c>
       <c r="L12" t="n">
-        <v>1.457799162154816</v>
+        <v>0.1336829463657342</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6593389958001517</v>
+        <v>0.216803232216301</v>
       </c>
       <c r="N12" t="n">
-        <v>1.013807616004169</v>
+        <v>1.0031829898598</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6874084218712436</v>
+        <v>0.2260329946563096</v>
       </c>
       <c r="P12" t="n">
-        <v>275.6660698693375</v>
+        <v>160.115060403124</v>
       </c>
       <c r="Q12" t="n">
-        <v>442.652057876281</v>
+        <v>253.9684989179754</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9352185154103512</v>
+        <v>0.9929386950621959</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7320829326784399</v>
+        <v>0.7263122216897311</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8726860553496545</v>
+        <v>0.9038155697673519</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9607421847013405</v>
+        <v>0.9339381642576087</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8900290088310134</v>
+        <v>0.9411360379277478</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4331940857422901</v>
+        <v>0.04721897863341561</v>
       </c>
       <c r="H13" t="n">
-        <v>1.791562662823933</v>
+        <v>1.830151433777111</v>
       </c>
       <c r="I13" t="n">
-        <v>1.609224550799236</v>
+        <v>0.1653346287519284</v>
       </c>
       <c r="J13" t="n">
-        <v>0.111425726026004</v>
+        <v>0.1224743202941563</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8603251099607887</v>
+        <v>0.1439045224329458</v>
       </c>
       <c r="L13" t="n">
-        <v>1.44452034304783</v>
+        <v>0.1325648510978407</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6581748139683636</v>
+        <v>0.2172992835547683</v>
       </c>
       <c r="N13" t="n">
-        <v>1.013758899381872</v>
+        <v>1.003197572047307</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6861946784086876</v>
+        <v>0.2265501639272233</v>
       </c>
       <c r="P13" t="n">
-        <v>275.6731388328726</v>
+        <v>160.105918755032</v>
       </c>
       <c r="Q13" t="n">
-        <v>442.6591268398161</v>
+        <v>253.9593572698835</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9312348491711745</v>
+        <v>0.9920035746203436</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7320742493237526</v>
+        <v>0.7262826191526703</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8800825475354563</v>
+        <v>0.9082941203422982</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9640521600183249</v>
+        <v>0.9540685739672035</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8966046250363011</v>
+        <v>0.9503435007582731</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4598328802267615</v>
+        <v>0.05347213333391571</v>
       </c>
       <c r="H14" t="n">
-        <v>1.79162072845671</v>
+        <v>1.830349386078743</v>
       </c>
       <c r="I14" t="n">
-        <v>1.515734267013933</v>
+        <v>0.1576362986285968</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1020310004148789</v>
+        <v>0.08515385805269547</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8088827461634024</v>
+        <v>0.1213950702180324</v>
       </c>
       <c r="L14" t="n">
-        <v>1.617903338365321</v>
+        <v>0.155246173909061</v>
       </c>
       <c r="M14" t="n">
-        <v>0.678109784789131</v>
+        <v>0.2312404232263808</v>
       </c>
       <c r="N14" t="n">
-        <v>1.014604987786653</v>
+        <v>1.003621022813429</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7069783222083735</v>
+        <v>0.2410848067767938</v>
       </c>
       <c r="P14" t="n">
-        <v>275.5537843187294</v>
+        <v>159.857189266089</v>
       </c>
       <c r="Q14" t="n">
-        <v>442.5397723256729</v>
+        <v>253.7106277809405</v>
       </c>
     </row>
     <row r="15">
@@ -1237,657 +1237,602 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9354314883577268</v>
+        <v>0.992903824833922</v>
       </c>
       <c r="C15" t="n">
-        <v>0.731989800459536</v>
+        <v>0.7262473320370419</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8719447424450475</v>
+        <v>0.9035637844022395</v>
       </c>
       <c r="E15" t="n">
-        <v>0.96025688509714</v>
+        <v>0.9326368161426652</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8893420961996246</v>
+        <v>0.9405541239798428</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4317699346625391</v>
+        <v>0.04745215601044529</v>
       </c>
       <c r="H15" t="n">
-        <v>1.792185438400578</v>
+        <v>1.830585351183432</v>
       </c>
       <c r="I15" t="n">
-        <v>1.618594607859318</v>
+        <v>0.1657674310232039</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1128031552162631</v>
+        <v>0.1248869345373525</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8656989651825258</v>
+        <v>0.1453271254284347</v>
       </c>
       <c r="L15" t="n">
-        <v>1.431376183418573</v>
+        <v>0.1315470957404751</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6570920290663547</v>
+        <v>0.2178351578842251</v>
       </c>
       <c r="N15" t="n">
-        <v>1.013713666189509</v>
+        <v>1.003213362339356</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6850657971117264</v>
+        <v>0.2271088515362979</v>
       </c>
       <c r="P15" t="n">
-        <v>275.6797247824986</v>
+        <v>160.0960666348718</v>
       </c>
       <c r="Q15" t="n">
-        <v>442.6657127894421</v>
+        <v>253.9495051497232</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_37_9_5</t>
+          <t>model_37_9_20</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9307670980253524</v>
+        <v>0.9928676613236821</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7319626147310508</v>
+        <v>0.7261845489918262</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8805484765473716</v>
+        <v>0.9033318970198269</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9640826979389165</v>
+        <v>0.9314299167625396</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8969865786291136</v>
+        <v>0.9400149476215858</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4629607342926694</v>
+        <v>0.047693981569938</v>
       </c>
       <c r="H16" t="n">
-        <v>1.792367229492137</v>
+        <v>1.831005181695879</v>
       </c>
       <c r="I16" t="n">
-        <v>1.509845011072938</v>
+        <v>0.1661660299876175</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1019443244257196</v>
+        <v>0.127124447007044</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8058946466360339</v>
+        <v>0.146645247987818</v>
       </c>
       <c r="L16" t="n">
-        <v>1.634375809031243</v>
+        <v>0.1306205390386171</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6804121797062934</v>
+        <v>0.2183895179946556</v>
       </c>
       <c r="N16" t="n">
-        <v>1.014704333162757</v>
+        <v>1.003229738268521</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7093787348437742</v>
+        <v>0.227686811904313</v>
       </c>
       <c r="P16" t="n">
-        <v>275.540226071271</v>
+        <v>160.0859001231725</v>
       </c>
       <c r="Q16" t="n">
-        <v>442.5262140782145</v>
+        <v>253.9393386380239</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_37_9_20</t>
+          <t>model_37_9_21</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9356284901258947</v>
+        <v>0.9928312138424117</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7318845525800629</v>
+        <v>0.7261244583316883</v>
       </c>
       <c r="D17" t="n">
-        <v>0.87118780145144</v>
+        <v>0.9031177376059196</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9597441453860464</v>
+        <v>0.9303154731001787</v>
       </c>
       <c r="F17" t="n">
-        <v>0.888637608126061</v>
+        <v>0.9395171239669241</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4304525829316911</v>
+        <v>0.04793770604501847</v>
       </c>
       <c r="H17" t="n">
-        <v>1.792889231455237</v>
+        <v>1.831407008216913</v>
       </c>
       <c r="I17" t="n">
-        <v>1.628162201053958</v>
+        <v>0.1665341557550254</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1142584678498454</v>
+        <v>0.129190552626422</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8712103166117705</v>
+        <v>0.14786227573719</v>
       </c>
       <c r="L17" t="n">
-        <v>1.418363671165862</v>
+        <v>0.1297869139209303</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6560888529244275</v>
+        <v>0.2189468109953157</v>
       </c>
       <c r="N17" t="n">
-        <v>1.013671825106005</v>
+        <v>1.003246242788342</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6840199136845766</v>
+        <v>0.2282678300217667</v>
       </c>
       <c r="P17" t="n">
-        <v>275.6858362107158</v>
+        <v>160.0757058033255</v>
       </c>
       <c r="Q17" t="n">
-        <v>442.6718242176593</v>
+        <v>253.9291443181769</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_37_9_4</t>
+          <t>model_37_9_22</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9302757890398523</v>
+        <v>0.9927952137830364</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7318310864728463</v>
+        <v>0.7260675236750124</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8809871584553011</v>
+        <v>0.9029205038273568</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9640692682490655</v>
+        <v>0.9292886709034391</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8973385241922671</v>
+        <v>0.9390584000054858</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4662461197409781</v>
+        <v>0.04817843860782573</v>
       </c>
       <c r="H18" t="n">
-        <v>1.793246759560383</v>
+        <v>1.831787730528265</v>
       </c>
       <c r="I18" t="n">
-        <v>1.504300153452115</v>
+        <v>0.1668731874826881</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1019824420063995</v>
+        <v>0.1310941767039094</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8031413059404409</v>
+        <v>0.1489837166031361</v>
       </c>
       <c r="L18" t="n">
-        <v>1.651016354050626</v>
+        <v>0.1290232084393975</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6828221728539416</v>
+        <v>0.2194958737831437</v>
       </c>
       <c r="N18" t="n">
-        <v>1.014808681973837</v>
+        <v>1.003262544702021</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7118913263890913</v>
+        <v>0.2288402675491892</v>
       </c>
       <c r="P18" t="n">
-        <v>275.5260832606602</v>
+        <v>160.0656873795923</v>
       </c>
       <c r="Q18" t="n">
-        <v>442.5120712676037</v>
+        <v>253.9191258944437</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_37_9_21</t>
+          <t>model_37_9_23</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9358100413867022</v>
+        <v>0.9927602509000719</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7317676647421036</v>
+        <v>0.7260138945716872</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8704158845591665</v>
+        <v>0.9027400027741748</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9592050816104595</v>
+        <v>0.928345374454035</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8879162326389766</v>
+        <v>0.9386372822616569</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4292385488147044</v>
+        <v>0.04841223556719883</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79367086096589</v>
+        <v>1.83214634858914</v>
       </c>
       <c r="I19" t="n">
-        <v>1.637919086818787</v>
+        <v>0.1671834567699834</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1157884962559635</v>
+        <v>0.1328429865905613</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8768537816624327</v>
+        <v>0.1500132216802723</v>
       </c>
       <c r="L19" t="n">
-        <v>1.405481180683388</v>
+        <v>0.1283315572384425</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6551629940821631</v>
+        <v>0.220027806350013</v>
       </c>
       <c r="N19" t="n">
-        <v>1.013633265546187</v>
+        <v>1.003278376950911</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6830546391146048</v>
+        <v>0.2293948455866824</v>
       </c>
       <c r="P19" t="n">
-        <v>275.6914849135077</v>
+        <v>160.0560053924663</v>
       </c>
       <c r="Q19" t="n">
-        <v>442.6774729204512</v>
+        <v>253.9094439073177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_37_9_3</t>
+          <t>model_37_9_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9297600685681118</v>
+        <v>0.9915544339414576</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7316789474717497</v>
+        <v>0.7259948783394126</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8813974026153873</v>
+        <v>0.9086928061803869</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9640106608583525</v>
+        <v>0.9551211915972238</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8976593023748856</v>
+        <v>0.9508827932510765</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4696947449101817</v>
+        <v>0.05647553912172873</v>
       </c>
       <c r="H20" t="n">
-        <v>1.794264113761252</v>
+        <v>1.832273510221922</v>
       </c>
       <c r="I20" t="n">
-        <v>1.499114743668089</v>
+        <v>0.1569509842292743</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1021487877648426</v>
+        <v>0.08320237385130115</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8006317939109444</v>
+        <v>0.1200766637449293</v>
       </c>
       <c r="L20" t="n">
-        <v>1.667823360180516</v>
+        <v>0.1583133019410863</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6853427937245578</v>
+        <v>0.2376458270656751</v>
       </c>
       <c r="N20" t="n">
-        <v>1.014918215525357</v>
+        <v>1.003824407271793</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7145192553085741</v>
+        <v>0.2477629019185408</v>
       </c>
       <c r="P20" t="n">
-        <v>275.5113445483907</v>
+        <v>159.7478953409443</v>
       </c>
       <c r="Q20" t="n">
-        <v>442.4973325553342</v>
+        <v>253.6013338557957</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_37_9_22</t>
+          <t>model_37_9_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9359766708787852</v>
+        <v>0.9909619605073683</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7316396390653208</v>
+        <v>0.7255871171164026</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8696302118455456</v>
+        <v>0.9090445391936832</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9586406683332049</v>
+        <v>0.9556896242120104</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8871791459027242</v>
+        <v>0.9512219788912538</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4281242966338866</v>
+        <v>0.06043741170357383</v>
       </c>
       <c r="H21" t="n">
-        <v>1.794526969256041</v>
+        <v>1.835000211397758</v>
       </c>
       <c r="I21" t="n">
-        <v>1.647849843603712</v>
+        <v>0.1563463786082556</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1173904743262752</v>
+        <v>0.08214853698245436</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8826201589649937</v>
+        <v>0.119247457795355</v>
       </c>
       <c r="L21" t="n">
-        <v>1.392729359359651</v>
+        <v>0.1616238333951145</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6543120789301438</v>
+        <v>0.2458402157979321</v>
       </c>
       <c r="N21" t="n">
-        <v>1.013597875211586</v>
+        <v>1.004092697128739</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6821674987429269</v>
+        <v>0.2563061427438532</v>
       </c>
       <c r="P21" t="n">
-        <v>275.6966834257319</v>
+        <v>159.612293933448</v>
       </c>
       <c r="Q21" t="n">
-        <v>442.6826714326754</v>
+        <v>253.4657324482994</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_37_9_2</t>
+          <t>model_37_9_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9292195820808525</v>
+        <v>0.990188699958694</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7315054941686979</v>
+        <v>0.7250254026441167</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8817788654599754</v>
+        <v>0.9093146114048175</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9639051069510238</v>
+        <v>0.9555955938906169</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8979483224336496</v>
+        <v>0.9512812725660197</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4733089805391961</v>
+        <v>0.06560820855309625</v>
       </c>
       <c r="H22" t="n">
-        <v>1.795423996797438</v>
+        <v>1.83875639866039</v>
       </c>
       <c r="I22" t="n">
-        <v>1.494293124352036</v>
+        <v>0.1558821424667503</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1024483821429175</v>
+        <v>0.08232286304485187</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7983707320509585</v>
+        <v>0.1191025027558011</v>
       </c>
       <c r="L22" t="n">
-        <v>1.684800201776579</v>
+        <v>0.1651902404171541</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6879745493397238</v>
+        <v>0.2561409935037659</v>
       </c>
       <c r="N22" t="n">
-        <v>1.015033009115571</v>
+        <v>1.004442852848893</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7172630502087629</v>
+        <v>0.2670454458821737</v>
       </c>
       <c r="P22" t="n">
-        <v>275.4960137358872</v>
+        <v>159.4481089209554</v>
       </c>
       <c r="Q22" t="n">
-        <v>442.4820017428307</v>
+        <v>253.3015474358068</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_37_9_23</t>
+          <t>model_37_9_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9361287203594304</v>
+        <v>0.9891883181912838</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7315008344630118</v>
+        <v>0.7242669859639406</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8688309230592471</v>
+        <v>0.9094574123073651</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9580518039695237</v>
+        <v>0.9546180563949136</v>
       </c>
       <c r="F23" t="n">
-        <v>0.886426622291187</v>
+        <v>0.9509608046552467</v>
       </c>
       <c r="G23" t="n">
-        <v>0.427107541056689</v>
+        <v>0.07229776603810237</v>
       </c>
       <c r="H23" t="n">
-        <v>1.795455156270816</v>
+        <v>1.843827934492916</v>
       </c>
       <c r="I23" t="n">
-        <v>1.657952705011568</v>
+        <v>0.1556366772271992</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1190618520826492</v>
+        <v>0.08413515359056384</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8885073020375607</v>
+        <v>0.1198859495376925</v>
       </c>
       <c r="L23" t="n">
-        <v>1.380101984791821</v>
+        <v>0.1690431957476877</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6535346517643031</v>
+        <v>0.2688824390660394</v>
       </c>
       <c r="N23" t="n">
-        <v>1.013565581516581</v>
+        <v>1.004895855913381</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6813569748931404</v>
+        <v>0.2803293211604616</v>
       </c>
       <c r="P23" t="n">
-        <v>275.7014388897426</v>
+        <v>159.2539240975992</v>
       </c>
       <c r="Q23" t="n">
-        <v>442.6874268966861</v>
+        <v>253.1073626124506</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_37_9_24</t>
+          <t>model_37_9_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9362666414848753</v>
+        <v>0.9879028958047902</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7313516621142799</v>
+        <v>0.7232577227754666</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8680188165009417</v>
+        <v>0.909401432800039</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9574391207376042</v>
+        <v>0.9524827848944043</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8856594308178226</v>
+        <v>0.9501314907824988</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4261852618557711</v>
+        <v>0.08089339145541116</v>
       </c>
       <c r="H24" t="n">
-        <v>1.796452672453662</v>
+        <v>1.850576882081471</v>
       </c>
       <c r="I24" t="n">
-        <v>1.668217580670549</v>
+        <v>0.1557329022715134</v>
       </c>
       <c r="J24" t="n">
-        <v>0.120800835095872</v>
+        <v>0.08809380721757082</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8945091947336895</v>
+        <v>0.121913370265137</v>
       </c>
       <c r="L24" t="n">
-        <v>1.367601683043256</v>
+        <v>0.1732170021221239</v>
       </c>
       <c r="M24" t="n">
-        <v>0.652828661944136</v>
+        <v>0.284417635626575</v>
       </c>
       <c r="N24" t="n">
-        <v>1.013536288534186</v>
+        <v>1.005477933975189</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6806209296247284</v>
+        <v>0.2965258832008694</v>
       </c>
       <c r="P24" t="n">
-        <v>275.7057622805266</v>
+        <v>159.0292462921474</v>
       </c>
       <c r="Q24" t="n">
-        <v>442.6917502874701</v>
+        <v>252.8826848069989</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_37_9_1</t>
+          <t>model_37_9_0</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9286535451644655</v>
+        <v>0.9862601607268148</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7313100972796402</v>
+        <v>0.7219289597997247</v>
       </c>
       <c r="D25" t="n">
-        <v>0.882130320815344</v>
+        <v>0.9090430353880699</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9637513044319785</v>
+        <v>0.9488482188116486</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8982043298536673</v>
+        <v>0.948627362991259</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4770940720054362</v>
+        <v>0.09187836848593203</v>
       </c>
       <c r="H25" t="n">
-        <v>1.796730616694286</v>
+        <v>1.859462326218648</v>
       </c>
       <c r="I25" t="n">
-        <v>1.489850794111447</v>
+        <v>0.1563489635499371</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1028849208860665</v>
+        <v>0.09483205488428</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7963679346819772</v>
+        <v>0.1255905062216125</v>
       </c>
       <c r="L25" t="n">
-        <v>1.701947270690027</v>
+        <v>0.1777455386921472</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6907199664157945</v>
+        <v>0.3031144478343651</v>
       </c>
       <c r="N25" t="n">
-        <v>1.0151532293456</v>
+        <v>1.006221814010499</v>
       </c>
       <c r="O25" t="n">
-        <v>0.7201253453735588</v>
+        <v>0.316018657412082</v>
       </c>
       <c r="P25" t="n">
-        <v>275.480083183188</v>
+        <v>158.7745793166576</v>
       </c>
       <c r="Q25" t="n">
-        <v>442.4660711901315</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_37_9_0</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9280612700745695</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.731092006202914</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.8824509716471343</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9635476671082897</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.8984264493717516</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.4810546182587466</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.798188992728572</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.485797827312184</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.1034629060965374</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.7946302491633779</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.719268402462403</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.6935810105955516</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.015279022285047</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.723108190127226</v>
-      </c>
-      <c r="P26" t="n">
-        <v>275.4635489276988</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>442.4495369346423</v>
+        <v>252.628017831509</v>
       </c>
     </row>
   </sheetData>
